--- a/beheer/Template_NLCS_Symbolen.xlsx
+++ b/beheer/Template_NLCS_Symbolen.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D7BCE2-E36A-426D-93D8-EE7D01955FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05202FC-5113-4F9B-9518-1418A927F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="1" activeTab="1" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbolen" sheetId="1" r:id="rId1"/>
-    <sheet name="Sbibliotheek" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6EA2DF69-8675-4906-A494-8FB45DE12650}</author>
+    <author>tc={7669B075-45D6-4712-B08D-1CA72E6E193A}</author>
     <author>tc={0B218701-10E1-435A-BB7F-4AB399F36349}</author>
     <author>tc={5F5C65B9-176B-4EA7-9DD7-BD887E233246}</author>
     <author>tc={5B5954D9-5A51-4062-BD31-62B1F52BAE11}</author>
@@ -47,15 +46,16 @@
     <author>tc={079E67F4-99B6-4025-B216-072B81FFB961}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6EA2DF69-8675-4906-A494-8FB45DE12650}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7669B075-45D6-4712-B08D-1CA72E6E193A}">
       <text>
-        <t>[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om het symbool aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1</t>
+    Verplicht: JA
+Inputtype: string (tekst)
+Doel: Aanduiden tot welke sbib het symbool behoort.
+Voorbeeld:  SAL
+</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1" shapeId="0" xr:uid="{0B218701-10E1-435A-BB7F-4AB399F36349}">
@@ -116,64 +116,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={970367E4-1ABA-42C2-B434-3EA21392AF47}</author>
-    <author>tc={35E65617-F9CA-4B01-B7EA-D1C95E2D4467}</author>
-    <author>tc={CD6BE1C9-DB7F-450E-8D6D-1341590D235B}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{970367E4-1ABA-42C2-B434-3EA21392AF47}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: De sbibliotheken met een nummer onderscheiden, kan uitgefaseerd worden vanwege de nieuwe URIs. Dit veld mag dus leeggelaten worden
-Voorbeeld:  1
-</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{35E65617-F9CA-4B01-B7EA-D1C95E2D4467}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld:  SAL</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{CD6BE1C9-DB7F-450E-8D6D-1341590D235B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld: Algemeen</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>sbib_id</t>
-  </si>
-  <si>
-    <t>bibliotheek</t>
-  </si>
-  <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fase</t>
   </si>
@@ -188,6 +132,9 @@
   </si>
   <si>
     <t>symbool</t>
+  </si>
+  <si>
+    <t>sbib</t>
   </si>
 </sst>
 </file>
@@ -594,11 +541,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-08-01T05:46:51.19" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{6EA2DF69-8675-4906-A494-8FB45DE12650}">
-    <text>Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om het symbool aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1</text>
+  <threadedComment ref="A1" dT="2024-08-02T09:22:55.10" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{7669B075-45D6-4712-B08D-1CA72E6E193A}">
+    <text xml:space="preserve">Verplicht: JA
+Inputtype: string (tekst)
+Doel: Aanduiden tot welke sbib het symbool behoort.
+Voorbeeld:  SAL
+</text>
   </threadedComment>
   <threadedComment ref="B1" dT="2024-08-01T05:47:27.83" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{0B218701-10E1-435A-BB7F-4AB399F36349}">
     <text>Verplicht: NEE
@@ -638,34 +586,12 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-08-01T05:55:08.07" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{970367E4-1ABA-42C2-B434-3EA21392AF47}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: De sbibliotheken met een nummer onderscheiden, kan uitgefaseerd worden vanwege de nieuwe URIs. Dit veld mag dus leeggelaten worden
-Voorbeeld:  1
-</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-08-01T05:55:24.75" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{35E65617-F9CA-4B01-B7EA-D1C95E2D4467}">
-    <text>Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld:  SAL</text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2024-08-01T05:55:51.38" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{CD6BE1C9-DB7F-450E-8D6D-1341590D235B}">
-    <text>Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld: Algemeen</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07945925-DE1D-4293-90DA-21DD93664E88}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,53 +600,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF60D4-FA3E-48BA-81BC-9B7D5C592214}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/beheer/Template_NLCS_Symbolen.xlsx
+++ b/beheer/Template_NLCS_Symbolen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05202FC-5113-4F9B-9518-1418A927F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200AA595-9481-49FB-9583-37739CAD6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{74978112-B7C2-481F-B02F-FC7358C1E258}"/>
   </bookViews>
@@ -43,7 +43,6 @@
     <author>tc={5F5C65B9-176B-4EA7-9DD7-BD887E233246}</author>
     <author>tc={5B5954D9-5A51-4062-BD31-62B1F52BAE11}</author>
     <author>tc={462B5BD1-2FF9-48A2-8378-87E2F357B592}</author>
-    <author>tc={079E67F4-99B6-4025-B216-072B81FFB961}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7669B075-45D6-4712-B08D-1CA72E6E193A}">
@@ -101,31 +100,17 @@
 Voorbeeld:  SO</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{079E67F4-99B6-4025-B216-072B81FFB961}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: string (tekst)
-Voorbeeld: https://github.com/nl-digigo/NLCS/blob/main/symbolen/actueel/autocad/SAL/B-SAL-VERWIJZING_MATERIAALNUMMER-SO.dwg
-</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>fase</t>
   </si>
   <si>
     <t>optie</t>
-  </si>
-  <si>
-    <t>fileURL</t>
   </si>
   <si>
     <t>categorisering_symbool</t>
@@ -141,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +141,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -571,27 +550,15 @@
 Inputtype: string  (tekst)
 Voorbeeld:  SO</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-08-01T05:54:40.75" personId="{123029D0-85DF-49FF-AB12-A26CC27A431B}" id="{079E67F4-99B6-4025-B216-072B81FFB961}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: string (tekst)
-Voorbeeld: https://github.com/nl-digigo/NLCS/blob/main/symbolen/actueel/autocad/SAL/B-SAL-VERWIJZING_MATERIAALNUMMER-SO.dwg
-</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>4205167999</xltc2:checksum>
-        <xltc2:hyperlink startIndex="52" length="112" url="https://github.com/nl-digigo/NLCS/blob/main/symbolen/actueel/autocad/SAL/B-SAL-VERWIJZING_MATERIAALNUMMER-SO.dwg"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07945925-DE1D-4293-90DA-21DD93664E88}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,24 +566,21 @@
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
